--- a/biology/Biochimie/Acide_hydroxamique/Acide_hydroxamique.xlsx
+++ b/biology/Biochimie/Acide_hydroxamique/Acide_hydroxamique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle acide hydroxamique une famille de composés chimiques partageant un même groupe fonctionnel constitué par une hydroxylamine sur un carbonyle : la forme générale de ces acides est donc R–CO–NH–OH.
-Les acides hydroxamiques sont utilisés comme chélateurs d'ions métalliques[1],[2],[3],[4],[5],[6],[7]. Ils peuvent être préparés à partir d'aldéhydes via la réaction d'Angeli-Rimini. Une réaction bien connue de ces acides est le réarrangement de Lossen conduisant à des isocyanates.
-Les hydroxamates sont des facteurs de croissance essentiels de certains micro-organismes, qui les utilisent comme sidérophores (littéralement : « transporteurs de fer ») pour absorber les ions ferriques Fe3+, qui ne sont pas solubles (contrairement aux ions ferreux Fe2+)[8]. Le fer est un composant clef des cytochromes et des protéines fer-soufre telles que les ferrédoxines, qui interviennent notamment dans la photosynthèse et la phosphorylation oxydative.
+Les acides hydroxamiques sont utilisés comme chélateurs d'ions métalliques. Ils peuvent être préparés à partir d'aldéhydes via la réaction d'Angeli-Rimini. Une réaction bien connue de ces acides est le réarrangement de Lossen conduisant à des isocyanates.
+Les hydroxamates sont des facteurs de croissance essentiels de certains micro-organismes, qui les utilisent comme sidérophores (littéralement : « transporteurs de fer ») pour absorber les ions ferriques Fe3+, qui ne sont pas solubles (contrairement aux ions ferreux Fe2+). Le fer est un composant clef des cytochromes et des protéines fer-soufre telles que les ferrédoxines, qui interviennent notamment dans la photosynthèse et la phosphorylation oxydative.
 </t>
         </is>
       </c>
